--- a/需求说明SRS/数据字典.xlsx
+++ b/需求说明SRS/数据字典.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E83B84B-2F49-462A-8C64-6C4F441F2C4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB0AB70-A26C-454A-935F-4B83D23810B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Faction表" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="70">
   <si>
     <t>数据名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -276,6 +276,30 @@
   </si>
   <si>
     <t>Faction表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>city_FoodMonth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城池粮草收入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>city_Money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>city_MoneyMonth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城池财富</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城池财富收入</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -321,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -344,6 +368,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -351,12 +386,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -373,104 +409,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>112922</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>67403</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6A90DA-D9CC-4DFF-BD80-5DCB51FFDEE5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5745480" y="975360"/>
-          <a:ext cx="1682642" cy="3999323"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>463442</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>166463</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D182E6B-B66C-4D5E-86FA-AFB211391B47}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="373380"/>
-          <a:ext cx="1682642" cy="3999323"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -738,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255729F9-6827-43CB-9373-D4024E6736E7}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -870,10 +808,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="A1:F9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -961,7 +899,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -972,28 +910,28 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>47</v>
+      <c r="A7" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
+      <c r="F7" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -1004,24 +942,72 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
+      <c r="A9" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1032,7 +1018,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1040,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54212BC6-248F-4653-8956-F8055929FE18}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="A1:F15"/>
     </sheetView>
   </sheetViews>
@@ -1297,6 +1282,5 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>